--- a/database/seeds.xlsx
+++ b/database/seeds.xlsx
@@ -4,6 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="examination_questions" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="genres" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="sub_genres" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -55,7 +57,7 @@
     <t>えうぇ</t>
   </si>
   <si>
-    <t>https://radiko.jp/#!/live/NACK5</t>
+    <t>https://www.youtube.com/</t>
   </si>
   <si>
     <t>犬はどれですか</t>
@@ -86,13 +88,313 @@
   </si>
   <si>
     <t>どれ</t>
+  </si>
+  <si>
+    <t>古代マケドニアにて、世界中に領土を広げようとした戦術の天才と呼ばれる、特攻隊長のような人はだれですか</t>
+  </si>
+  <si>
+    <t>アレクサンドロス大王</t>
+  </si>
+  <si>
+    <t>ダミー</t>
+  </si>
+  <si>
+    <t>マケドニアが滅びる原因にもなった、アレクサンドロス大王の死に際に残した言葉はなんですか</t>
+  </si>
+  <si>
+    <t>後継者は最強のやつ</t>
+  </si>
+  <si>
+    <t>滅びたマケドニアに変わって勢力を伸ばした国はどこですか</t>
+  </si>
+  <si>
+    <t>共和政ローマ</t>
+  </si>
+  <si>
+    <t>象に乗って、ローマを逆サイドから攻めたのは、だれですか</t>
+  </si>
+  <si>
+    <t>ハンニバル</t>
+  </si>
+  <si>
+    <t>帝政ローマの礎を築いた、ハゲてて、女遊びのする借金王だったのは、だれですか</t>
+  </si>
+  <si>
+    <t>カエサル</t>
+  </si>
+  <si>
+    <t>帝政ローマが二分されたうちの東側の国は、その後何という国になりますか</t>
+  </si>
+  <si>
+    <t>ビザンツ帝国</t>
+  </si>
+  <si>
+    <t>帝政ローマが二分されたうちの西側の国は、その後すぐに滅んでしまいますが、その時に攻めてきたゲルマン人によって作られた国は、なんですか</t>
+  </si>
+  <si>
+    <t>フランク王国</t>
+  </si>
+  <si>
+    <t>イギリスとフランスとの戦いで、フランスを勝利に導いた女性の軍人はだれですか</t>
+  </si>
+  <si>
+    <t>ジャンヌ・ダルク</t>
+  </si>
+  <si>
+    <t>ローマでベースとなった言語はなんですか</t>
+  </si>
+  <si>
+    <t>ラテン語</t>
+  </si>
+  <si>
+    <t>ローマでベースとなった宗教はなんですか</t>
+  </si>
+  <si>
+    <t>キリスト教</t>
+  </si>
+  <si>
+    <t>エジプト、シリアパレスチナ、メソポタミアをまとめて統一した地域はどこですか</t>
+  </si>
+  <si>
+    <t>オリエント</t>
+  </si>
+  <si>
+    <t>イスタンブール</t>
+  </si>
+  <si>
+    <t>サウジアラビア</t>
+  </si>
+  <si>
+    <t>エジプト</t>
+  </si>
+  <si>
+    <t>オリエント統一の頃、西のマケドニアから中東に攻めてきたのは、だれですか</t>
+  </si>
+  <si>
+    <t>ダレイオス1世</t>
+  </si>
+  <si>
+    <t>現代のイランが、当時の共和制ローマと戦っていた頃は、なんという国名でしたか</t>
+  </si>
+  <si>
+    <t>パルティア</t>
+  </si>
+  <si>
+    <t>ササン朝</t>
+  </si>
+  <si>
+    <t>ウマイヤ朝</t>
+  </si>
+  <si>
+    <t>アッパーズ朝</t>
+  </si>
+  <si>
+    <t>現代のイランが、当時のビザンツ帝国と戦っていた頃は、なんという国名でしたか</t>
+  </si>
+  <si>
+    <t>ビザンツ帝国とササン朝の戦争で、迂回路となっていたサウジアラビア（メッカ）が栄えたために、貧富の差が生まれて新しく出来た宗教はなんですか</t>
+  </si>
+  <si>
+    <t>イスラム教</t>
+  </si>
+  <si>
+    <t>仏教</t>
+  </si>
+  <si>
+    <t>ヒンドゥー教</t>
+  </si>
+  <si>
+    <t>後に「最後の預言者」と呼ばれた、イスラム教の創始者はだれですか</t>
+  </si>
+  <si>
+    <t>ムハンマド</t>
+  </si>
+  <si>
+    <t>キリスト</t>
+  </si>
+  <si>
+    <t>ブッダ</t>
+  </si>
+  <si>
+    <t>イスラム</t>
+  </si>
+  <si>
+    <t>スンナ派により設立され、アラブ人を優遇しすぎて滅んでしまった王朝の名前はなんですか</t>
+  </si>
+  <si>
+    <t>ウマイヤ朝の後に栄えた、バグダットのある王朝の名前はなんですか</t>
+  </si>
+  <si>
+    <t>アッパーズ朝に東西から攻めこんだ、シーア派の王朝は、ブワイフ朝とどこですか</t>
+  </si>
+  <si>
+    <t>ファーティマ朝</t>
+  </si>
+  <si>
+    <t>その後、トルコが攻められて滅亡したシーア派の王朝は、ファーティマ朝とどこですか</t>
+  </si>
+  <si>
+    <t>ブワイフ朝</t>
+  </si>
+  <si>
+    <t>更にバグダットを奪い返し、エルサレムも占拠した、セルジューク朝の人物はだれですか</t>
+  </si>
+  <si>
+    <t>トゥグリルベク</t>
+  </si>
+  <si>
+    <t>ティムール</t>
+  </si>
+  <si>
+    <t>サラディン</t>
+  </si>
+  <si>
+    <t>メフメト二世</t>
+  </si>
+  <si>
+    <t>エルサレムを取り返すために攻めてきた十字軍から、自国を守り英雄と呼ばれるようになったのはだれですか</t>
+  </si>
+  <si>
+    <t>それまでヨーロッパ側を向いていた中東が、中国側の明まで攻め込んだ時に中心となったのはだれですか</t>
+  </si>
+  <si>
+    <t>1000年続いたビザンツ帝国と戦って勝利した、オスマン帝国の人物はだれですか</t>
+  </si>
+  <si>
+    <t>メフメト二世がコンスタンティノープルを陥落させた、現トルコの場所はどこですか</t>
+  </si>
+  <si>
+    <t>未だに未解読である文字が使われていた、まちづくりが凄いと言われるインドの文明はなんですか</t>
+  </si>
+  <si>
+    <t>インダス文明</t>
+  </si>
+  <si>
+    <t>エジプト文明</t>
+  </si>
+  <si>
+    <t>インド文明</t>
+  </si>
+  <si>
+    <t>メソポタミア文明</t>
+  </si>
+  <si>
+    <t>北西からインダス文明の民を南に追いやり、小国分立させたのは、だれですか</t>
+  </si>
+  <si>
+    <t>アーリア人</t>
+  </si>
+  <si>
+    <t>ナーガールジュナ</t>
+  </si>
+  <si>
+    <t>アショーカ王</t>
+  </si>
+  <si>
+    <t>アーリア人が持ち込んだ、身分を分ける制度はなんですか</t>
+  </si>
+  <si>
+    <t>カースト制度</t>
+  </si>
+  <si>
+    <t>士農工商</t>
+  </si>
+  <si>
+    <t>インド制度</t>
+  </si>
+  <si>
+    <t>身分制度</t>
+  </si>
+  <si>
+    <t>バラモン教に変わり、生老病死の苦しみの連鎖から逃れるために仏教を作ったのは、だれですか</t>
+  </si>
+  <si>
+    <t>小国分立で別れていた国が、西からアレクサンドロスが攻めてきたこともあって、国内で一丸となるために大きな統一王朝になりましたが、その王朝の名前はなんですか</t>
+  </si>
+  <si>
+    <t>マウリヤ朝</t>
+  </si>
+  <si>
+    <t>クシャーナ朝</t>
+  </si>
+  <si>
+    <t>グプタ朝</t>
+  </si>
+  <si>
+    <t>サータヴァーハナ朝</t>
+  </si>
+  <si>
+    <t>マウリヤ朝の時に、仏教を国の公認にすることで、うまく国を収めようとしたのは、だれですか</t>
+  </si>
+  <si>
+    <t>マウリヤ朝の次に栄えた南北の王朝のうち、北の王朝の名前はなんですか</t>
+  </si>
+  <si>
+    <t>クシャーナ朝は、シルクロードにより陸路の通過点になっていたことで栄えましたが、その地方はなんですか</t>
+  </si>
+  <si>
+    <t>ガンダーラ</t>
+  </si>
+  <si>
+    <t>インド</t>
+  </si>
+  <si>
+    <t>トルコ</t>
+  </si>
+  <si>
+    <t>マウリヤ朝に対して、海が近いことでヨーロッパと取引して栄えた、南の王朝の名前はなんですか</t>
+  </si>
+  <si>
+    <t>より政治に利用しやすいようにするため、自分だけでなく、みんなを救おうとした大乗仏教を説いたのはだれですか</t>
+  </si>
+  <si>
+    <t>身分制度意識の高かったバラモン教をヒンズー教として形を変え国境とした王朝の名前は、なんですか</t>
+  </si>
+  <si>
+    <t>三蔵法師の目指していた天竺がある王朝の名前は、なんですか</t>
+  </si>
+  <si>
+    <t>ヴァルタナ朝</t>
+  </si>
+  <si>
+    <t>その後、西からイスラム勢力が攻めてきたことによって出来た王朝は、なんですか</t>
+  </si>
+  <si>
+    <t>奴隷王朝</t>
+  </si>
+  <si>
+    <t>ムガール帝国の時代、自身はイスラム教だが、ヒンズー教の妻をつくることで、イスラムとヒンズーを融和させたのは、だれですか</t>
+  </si>
+  <si>
+    <t>アクバル</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>世界史2019</t>
+  </si>
+  <si>
+    <t>ダミージャンル</t>
+  </si>
+  <si>
+    <t>ヨーロッパ史（古代〜中世）</t>
+  </si>
+  <si>
+    <t>中東（古代〜中世）</t>
+  </si>
+  <si>
+    <t>インド（古代〜中世）</t>
+  </si>
+  <si>
+    <t>ダミーサブジャンル</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -107,18 +409,28 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -145,6 +457,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -154,6 +469,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -364,6 +687,1324 @@
     <col customWidth="1" min="1" max="1" width="2.75"/>
     <col customWidth="1" min="2" max="2" width="9.63"/>
     <col customWidth="1" min="3" max="3" width="8.88"/>
+    <col customWidth="1" min="4" max="4" width="80.0"/>
+    <col customWidth="1" min="5" max="5" width="19.38"/>
+    <col customWidth="1" min="6" max="8" width="17.5"/>
+    <col customWidth="1" min="9" max="26" width="7.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>901.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>901.0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>901.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>901.0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>901.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>901.0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId3" ref="I4"/>
+    <hyperlink r:id="rId4" ref="I5"/>
+    <hyperlink r:id="rId5" ref="I6"/>
+    <hyperlink r:id="rId6" ref="I7"/>
+    <hyperlink r:id="rId7" ref="I8"/>
+    <hyperlink r:id="rId8" ref="I9"/>
+    <hyperlink r:id="rId9" ref="I10"/>
+    <hyperlink r:id="rId10" ref="I11"/>
+    <hyperlink r:id="rId11" ref="I12"/>
+    <hyperlink r:id="rId12" ref="I13"/>
+    <hyperlink r:id="rId13" ref="I14"/>
+    <hyperlink r:id="rId14" ref="I15"/>
+    <hyperlink r:id="rId15" ref="I16"/>
+    <hyperlink r:id="rId16" ref="I17"/>
+    <hyperlink r:id="rId17" ref="I18"/>
+    <hyperlink r:id="rId18" ref="I19"/>
+    <hyperlink r:id="rId19" ref="I20"/>
+    <hyperlink r:id="rId20" ref="I21"/>
+    <hyperlink r:id="rId21" ref="I22"/>
+    <hyperlink r:id="rId22" ref="I23"/>
+    <hyperlink r:id="rId23" ref="I24"/>
+    <hyperlink r:id="rId24" ref="I25"/>
+    <hyperlink r:id="rId25" ref="I26"/>
+    <hyperlink r:id="rId26" ref="I27"/>
+    <hyperlink r:id="rId27" ref="I28"/>
+    <hyperlink r:id="rId28" ref="I29"/>
+    <hyperlink r:id="rId29" ref="I30"/>
+    <hyperlink r:id="rId30" ref="I31"/>
+    <hyperlink r:id="rId31" ref="I32"/>
+    <hyperlink r:id="rId32" ref="I33"/>
+    <hyperlink r:id="rId33" ref="I34"/>
+    <hyperlink r:id="rId34" ref="I35"/>
+    <hyperlink r:id="rId35" ref="I36"/>
+    <hyperlink r:id="rId36" ref="I37"/>
+    <hyperlink r:id="rId37" ref="I38"/>
+    <hyperlink r:id="rId38" ref="I39"/>
+    <hyperlink r:id="rId39" ref="I40"/>
+    <hyperlink r:id="rId40" ref="I41"/>
+    <hyperlink r:id="rId41" ref="I42"/>
+    <hyperlink r:id="rId42" ref="I43"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId43"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.75"/>
+    <col customWidth="1" min="2" max="2" width="9.63"/>
+    <col customWidth="1" min="3" max="3" width="13.88"/>
     <col customWidth="1" min="4" max="26" width="7.63"/>
   </cols>
   <sheetData>
@@ -372,28 +2013,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
@@ -403,26 +2026,65 @@
       <c r="B2" s="2">
         <v>1.0</v>
       </c>
-      <c r="C2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
+      <c r="C2" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>901.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>901.0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.75"/>
+    <col customWidth="1" min="2" max="2" width="9.63"/>
+    <col customWidth="1" min="3" max="3" width="8.88"/>
+    <col customWidth="1" min="4" max="26" width="7.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
@@ -432,26 +2094,8 @@
       <c r="B3" s="2">
         <v>1.0</v>
       </c>
-      <c r="C3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
+      <c r="C3" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -461,37 +2105,25 @@
       <c r="B4" s="2">
         <v>1.0</v>
       </c>
-      <c r="C4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>901.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>901.0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" location="!/live/NACK5" ref="I2"/>
-    <hyperlink r:id="rId2" location="!/live/NACK5" ref="I3"/>
-    <hyperlink r:id="rId3" location="!/live/NACK5" ref="I4"/>
-  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/seeds.xlsx
+++ b/database/seeds.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -51,10 +51,10 @@
     <t>うう</t>
   </si>
   <si>
-    <t>っｓ</t>
-  </si>
-  <si>
-    <t>えうぇ</t>
+    <t>ええ</t>
+  </si>
+  <si>
+    <t>おおお</t>
   </si>
   <si>
     <t>https://www.youtube.com/</t>
@@ -72,22 +72,19 @@
     <t>あ</t>
   </si>
   <si>
-    <t>ええ</t>
-  </si>
-  <si>
     <t>あれはどれですか</t>
   </si>
   <si>
     <t>あれ</t>
   </si>
   <si>
-    <t>これ</t>
-  </si>
-  <si>
-    <t>それ</t>
-  </si>
-  <si>
-    <t>どれ</t>
+    <t>ハンニバル</t>
+  </si>
+  <si>
+    <t>カエサル</t>
+  </si>
+  <si>
+    <t>ジャンヌ・ダルク</t>
   </si>
   <si>
     <t>古代マケドニアにて、世界中に領土を広げようとした戦術の天才と呼ばれる、特攻隊長のような人はだれですか</t>
@@ -96,7 +93,7 @@
     <t>アレクサンドロス大王</t>
   </si>
   <si>
-    <t>ダミー</t>
+    <t>https://youtu.be/LaODJ_DG3ys?t=63</t>
   </si>
   <si>
     <t>マケドニアが滅びる原因にもなった、アレクサンドロス大王の死に際に残した言葉はなんですか</t>
@@ -105,40 +102,64 @@
     <t>後継者は最強のやつ</t>
   </si>
   <si>
+    <t>賽（さい）は投げられた</t>
+  </si>
+  <si>
+    <t>勇気のあるところに希望あり</t>
+  </si>
+  <si>
+    <t>羊が何匹いるかは狼には関係なし</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LaODJ_DG3ys?t=249</t>
+  </si>
+  <si>
     <t>滅びたマケドニアに変わって勢力を伸ばした国はどこですか</t>
   </si>
   <si>
     <t>共和政ローマ</t>
   </si>
   <si>
+    <t>帝政ローマ</t>
+  </si>
+  <si>
+    <t>ビザンツ帝国</t>
+  </si>
+  <si>
+    <t>フランク王国</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LaODJ_DG3ys?t=286</t>
+  </si>
+  <si>
     <t>象に乗って、ローマを逆サイドから攻めたのは、だれですか</t>
   </si>
   <si>
-    <t>ハンニバル</t>
+    <t>https://youtu.be/LaODJ_DG3ys?t=452</t>
   </si>
   <si>
     <t>帝政ローマの礎を築いた、ハゲてて、女遊びのする借金王だったのは、だれですか</t>
   </si>
   <si>
-    <t>カエサル</t>
+    <t>https://youtu.be/LaODJ_DG3ys?t=623</t>
   </si>
   <si>
     <t>帝政ローマが二分されたうちの東側の国は、その後何という国になりますか</t>
   </si>
   <si>
-    <t>ビザンツ帝国</t>
+    <t>https://youtu.be/LaODJ_DG3ys?t=799</t>
   </si>
   <si>
     <t>帝政ローマが二分されたうちの西側の国は、その後すぐに滅んでしまいますが、その時に攻めてきたゲルマン人によって作られた国は、なんですか</t>
   </si>
   <si>
-    <t>フランク王国</t>
+    <t>https://youtu.be/LaODJ_DG3ys?t=813</t>
   </si>
   <si>
     <t>イギリスとフランスとの戦いで、フランスを勝利に導いた女性の軍人はだれですか</t>
   </si>
   <si>
-    <t>ジャンヌ・ダルク</t>
+    <t>https://youtu.be/LaODJ_DG3ys?t=1067</t>
   </si>
   <si>
     <t>ローマでベースとなった言語はなんですか</t>
@@ -147,12 +168,36 @@
     <t>ラテン語</t>
   </si>
   <si>
-    <t>ローマでベースとなった宗教はなんですか</t>
+    <t>ローマ語</t>
+  </si>
+  <si>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>ユダヤ語</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LaODJ_DG3ys?t=1113</t>
+  </si>
+  <si>
+    <t>ヨーロッパでベースとなった宗教はなんですか</t>
   </si>
   <si>
     <t>キリスト教</t>
   </si>
   <si>
+    <t>ラテン教</t>
+  </si>
+  <si>
+    <t>ゾロアスター教</t>
+  </si>
+  <si>
+    <t>イスラム教</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LaODJ_DG3ys?t=1121</t>
+  </si>
+  <si>
     <t>エジプト、シリアパレスチナ、メソポタミアをまとめて統一した地域はどこですか</t>
   </si>
   <si>
@@ -165,103 +210,142 @@
     <t>サウジアラビア</t>
   </si>
   <si>
+    <t>ギリシャ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=136</t>
+  </si>
+  <si>
+    <t>オリエント統一の頃、西のマケドニアから中東に攻めてきたのは、だれですか</t>
+  </si>
+  <si>
+    <t>ダレイオス1世</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=223</t>
+  </si>
+  <si>
+    <t>現代のイランが、当時の共和制ローマと戦っていた頃は、なんという国名でしたか</t>
+  </si>
+  <si>
+    <t>パルティア</t>
+  </si>
+  <si>
+    <t>ササン朝</t>
+  </si>
+  <si>
+    <t>ウマイヤ朝</t>
+  </si>
+  <si>
+    <t>アッパーズ朝</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=266</t>
+  </si>
+  <si>
+    <t>現代のイランが、当時のビザンツ帝国と戦っていた頃は、なんという国名でしたか</t>
+  </si>
+  <si>
+    <t>ビザンツ帝国とササン朝の戦争で迂回路となっていたサウジアラビア（メッカ）が栄えたために、貧富の差が生まれて新しく出来た宗教はなんですか</t>
+  </si>
+  <si>
+    <t>仏教</t>
+  </si>
+  <si>
+    <t>ヒンドゥー教</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=294</t>
+  </si>
+  <si>
+    <t>後に「最後の預言者」と呼ばれた、イスラム教の創始者はだれですか</t>
+  </si>
+  <si>
+    <t>ムハンマド</t>
+  </si>
+  <si>
+    <t>キリスト</t>
+  </si>
+  <si>
+    <t>ブッダ</t>
+  </si>
+  <si>
+    <t>イスラム</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=471</t>
+  </si>
+  <si>
+    <t>スンナ派により設立され、アラブ人を優遇しすぎて滅んでしまった王朝の名前はなんですか</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=592</t>
+  </si>
+  <si>
+    <t>ウマイヤ朝の後に栄えた、バグダットのある王朝の名前はなんですか</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=605</t>
+  </si>
+  <si>
+    <t>アッパーズ朝に東西から攻めこんだ、シーア派の王朝は、ブワイフ朝とどこですか</t>
+  </si>
+  <si>
+    <t>ファーティマ朝</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=647</t>
+  </si>
+  <si>
+    <t>その後、トルコが攻められて滅亡したシーア派の王朝は、ファーティマ朝とどこですか</t>
+  </si>
+  <si>
+    <t>ブワイフ朝</t>
+  </si>
+  <si>
+    <t>更にトルコ人がバグダットを奪い返し、エルサレムも占拠した、セルジューク朝の人物はだれですか</t>
+  </si>
+  <si>
+    <t>トゥグリルベク</t>
+  </si>
+  <si>
+    <t>ティムール</t>
+  </si>
+  <si>
+    <t>サラディン</t>
+  </si>
+  <si>
+    <t>メフメト二世</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=686</t>
+  </si>
+  <si>
+    <t>エルサレムを取り返すために攻めてきた十字軍から、自国を守り英雄と呼ばれるようになったのはだれですか</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=809</t>
+  </si>
+  <si>
+    <t>それまでヨーロッパ側を向いていた中東が、中国側の明まで攻め込んだ時に中心となったのはだれですか</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=859</t>
+  </si>
+  <si>
+    <t>1000年続いたビザンツ帝国と戦って勝利した、オスマン帝国の人物はだれですか</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=962</t>
+  </si>
+  <si>
+    <t>メフメト二世がコンスタンティノープルを陥落させた、現トルコの場所はどこですか</t>
+  </si>
+  <si>
     <t>エジプト</t>
   </si>
   <si>
-    <t>オリエント統一の頃、西のマケドニアから中東に攻めてきたのは、だれですか</t>
-  </si>
-  <si>
-    <t>ダレイオス1世</t>
-  </si>
-  <si>
-    <t>現代のイランが、当時の共和制ローマと戦っていた頃は、なんという国名でしたか</t>
-  </si>
-  <si>
-    <t>パルティア</t>
-  </si>
-  <si>
-    <t>ササン朝</t>
-  </si>
-  <si>
-    <t>ウマイヤ朝</t>
-  </si>
-  <si>
-    <t>アッパーズ朝</t>
-  </si>
-  <si>
-    <t>現代のイランが、当時のビザンツ帝国と戦っていた頃は、なんという国名でしたか</t>
-  </si>
-  <si>
-    <t>ビザンツ帝国とササン朝の戦争で、迂回路となっていたサウジアラビア（メッカ）が栄えたために、貧富の差が生まれて新しく出来た宗教はなんですか</t>
-  </si>
-  <si>
-    <t>イスラム教</t>
-  </si>
-  <si>
-    <t>仏教</t>
-  </si>
-  <si>
-    <t>ヒンドゥー教</t>
-  </si>
-  <si>
-    <t>後に「最後の預言者」と呼ばれた、イスラム教の創始者はだれですか</t>
-  </si>
-  <si>
-    <t>ムハンマド</t>
-  </si>
-  <si>
-    <t>キリスト</t>
-  </si>
-  <si>
-    <t>ブッダ</t>
-  </si>
-  <si>
-    <t>イスラム</t>
-  </si>
-  <si>
-    <t>スンナ派により設立され、アラブ人を優遇しすぎて滅んでしまった王朝の名前はなんですか</t>
-  </si>
-  <si>
-    <t>ウマイヤ朝の後に栄えた、バグダットのある王朝の名前はなんですか</t>
-  </si>
-  <si>
-    <t>アッパーズ朝に東西から攻めこんだ、シーア派の王朝は、ブワイフ朝とどこですか</t>
-  </si>
-  <si>
-    <t>ファーティマ朝</t>
-  </si>
-  <si>
-    <t>その後、トルコが攻められて滅亡したシーア派の王朝は、ファーティマ朝とどこですか</t>
-  </si>
-  <si>
-    <t>ブワイフ朝</t>
-  </si>
-  <si>
-    <t>更にバグダットを奪い返し、エルサレムも占拠した、セルジューク朝の人物はだれですか</t>
-  </si>
-  <si>
-    <t>トゥグリルベク</t>
-  </si>
-  <si>
-    <t>ティムール</t>
-  </si>
-  <si>
-    <t>サラディン</t>
-  </si>
-  <si>
-    <t>メフメト二世</t>
-  </si>
-  <si>
-    <t>エルサレムを取り返すために攻めてきた十字軍から、自国を守り英雄と呼ばれるようになったのはだれですか</t>
-  </si>
-  <si>
-    <t>それまでヨーロッパ側を向いていた中東が、中国側の明まで攻め込んだ時に中心となったのはだれですか</t>
-  </si>
-  <si>
-    <t>1000年続いたビザンツ帝国と戦って勝利した、オスマン帝国の人物はだれですか</t>
-  </si>
-  <si>
-    <t>メフメト二世がコンスタンティノープルを陥落させた、現トルコの場所はどこですか</t>
+    <t>https://youtu.be/WvmfeRbCUDQ?t=1010</t>
   </si>
   <si>
     <t>未だに未解読である文字が使われていた、まちづくりが凄いと言われるインドの文明はなんですか</t>
@@ -279,6 +363,9 @@
     <t>メソポタミア文明</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=68</t>
+  </si>
+  <si>
     <t>北西からインダス文明の民を南に追いやり、小国分立させたのは、だれですか</t>
   </si>
   <si>
@@ -291,10 +378,13 @@
     <t>アショーカ王</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=127</t>
+  </si>
+  <si>
     <t>アーリア人が持ち込んだ、身分を分ける制度はなんですか</t>
   </si>
   <si>
-    <t>カースト制度</t>
+    <t>ヴァルナ制度（カースト制度）</t>
   </si>
   <si>
     <t>士農工商</t>
@@ -303,12 +393,18 @@
     <t>インド制度</t>
   </si>
   <si>
-    <t>身分制度</t>
+    <t>アーリア制度</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=161</t>
   </si>
   <si>
     <t>バラモン教に変わり、生老病死の苦しみの連鎖から逃れるために仏教を作ったのは、だれですか</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=230</t>
+  </si>
+  <si>
     <t>小国分立で別れていた国が、西からアレクサンドロスが攻めてきたこともあって、国内で一丸となるために大きな統一王朝になりましたが、その王朝の名前はなんですか</t>
   </si>
   <si>
@@ -324,13 +420,22 @@
     <t>サータヴァーハナ朝</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=304</t>
+  </si>
+  <si>
     <t>マウリヤ朝の時に、仏教を国の公認にすることで、うまく国を収めようとしたのは、だれですか</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=377</t>
+  </si>
+  <si>
     <t>マウリヤ朝の次に栄えた南北の王朝のうち、北の王朝の名前はなんですか</t>
   </si>
   <si>
-    <t>クシャーナ朝は、シルクロードにより陸路の通過点になっていたことで栄えましたが、その地方はなんですか</t>
+    <t>https://youtu.be/vprfrSTXgjY?t=438</t>
+  </si>
+  <si>
+    <t>クシャーナ朝は、シルクロードにより陸路の通過点になっていたことで栄えましたが、その地方の名前はなんですか</t>
   </si>
   <si>
     <t>ガンダーラ</t>
@@ -342,33 +447,54 @@
     <t>トルコ</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=465</t>
+  </si>
+  <si>
     <t>マウリヤ朝に対して、海が近いことでヨーロッパと取引して栄えた、南の王朝の名前はなんですか</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=551</t>
+  </si>
+  <si>
     <t>より政治に利用しやすいようにするため、自分だけでなく、みんなを救おうとした大乗仏教を説いたのはだれですか</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=577</t>
+  </si>
+  <si>
     <t>身分制度意識の高かったバラモン教をヒンズー教として形を変え国境とした王朝の名前は、なんですか</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=694</t>
+  </si>
+  <si>
     <t>三蔵法師の目指していた天竺がある王朝の名前は、なんですか</t>
   </si>
   <si>
     <t>ヴァルタナ朝</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=850</t>
+  </si>
+  <si>
     <t>その後、西からイスラム勢力が攻めてきたことによって出来た王朝は、なんですか</t>
   </si>
   <si>
     <t>奴隷王朝</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=914</t>
+  </si>
+  <si>
     <t>ムガール帝国の時代、自身はイスラム教だが、ヒンズー教の妻をつくることで、イスラムとヒンズーを融和させたのは、だれですか</t>
   </si>
   <si>
     <t>アクバル</t>
   </si>
   <si>
+    <t>https://youtu.be/vprfrSTXgjY?t=1022</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -378,13 +504,25 @@
     <t>ダミージャンル</t>
   </si>
   <si>
-    <t>ヨーロッパ史（古代〜中世）</t>
-  </si>
-  <si>
-    <t>中東（古代〜中世）</t>
-  </si>
-  <si>
-    <t>インド（古代〜中世）</t>
+    <t>url</t>
+  </si>
+  <si>
+    <t>古代中世ヨーロッパ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LaODJ_DG3ys</t>
+  </si>
+  <si>
+    <t>古代中世中東</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WvmfeRbCUDQ</t>
+  </si>
+  <si>
+    <t>古代中世インド</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vprfrSTXgjY</t>
   </si>
   <si>
     <t>ダミーサブジャンル</t>
@@ -394,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -408,6 +546,13 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
@@ -439,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -457,7 +602,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -682,14 +833,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0" outlineLevelCol="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="2.75"/>
-    <col customWidth="1" min="2" max="2" width="9.63"/>
+    <col customWidth="1" min="2" max="2" width="8.13"/>
     <col customWidth="1" min="3" max="3" width="8.88"/>
-    <col customWidth="1" min="4" max="4" width="80.0"/>
-    <col customWidth="1" min="5" max="5" width="19.38"/>
-    <col customWidth="1" min="6" max="8" width="17.5"/>
+    <col customWidth="1" min="4" max="4" width="33.13"/>
+    <col customWidth="1" min="5" max="5" width="14.25"/>
+    <col customWidth="1" min="6" max="6" width="13.38" outlineLevel="1"/>
+    <col customWidth="1" min="7" max="7" width="13.88" outlineLevel="1"/>
+    <col customWidth="1" min="8" max="8" width="14.88" outlineLevel="1"/>
     <col customWidth="1" min="9" max="26" width="7.63"/>
   </cols>
   <sheetData>
@@ -774,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
@@ -791,84 +944,84 @@
         <v>901.0</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4.0</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
       </c>
-      <c r="C5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6.0</v>
       </c>
       <c r="B7" s="2">
@@ -877,27 +1030,27 @@
       <c r="C7" s="3">
         <v>1.0</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>27</v>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7.0</v>
       </c>
       <c r="B8" s="2">
@@ -906,27 +1059,27 @@
       <c r="C8" s="3">
         <v>1.0</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>27</v>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
@@ -935,85 +1088,85 @@
       <c r="C9" s="3">
         <v>1.0</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>14</v>
+      <c r="I11" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11.0</v>
       </c>
       <c r="B12" s="2">
@@ -1022,27 +1175,27 @@
       <c r="C12" s="3">
         <v>1.0</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>27</v>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>12.0</v>
       </c>
       <c r="B13" s="2">
@@ -1051,27 +1204,27 @@
       <c r="C13" s="3">
         <v>1.0</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>27</v>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13.0</v>
       </c>
       <c r="B14" s="2">
@@ -1080,23 +1233,23 @@
       <c r="C14" s="3">
         <v>1.0</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>27</v>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
@@ -1106,26 +1259,26 @@
       <c r="B15" s="2">
         <v>1.0</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>2.0</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>50</v>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
@@ -1135,26 +1288,26 @@
       <c r="B16" s="2">
         <v>1.0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>2.0</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>52</v>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
@@ -1164,26 +1317,26 @@
       <c r="B17" s="2">
         <v>1.0</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>2.0</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>57</v>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
@@ -1193,26 +1346,26 @@
       <c r="B18" s="2">
         <v>1.0</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>2.0</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>57</v>
+      <c r="D18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
@@ -1222,26 +1375,26 @@
       <c r="B19" s="2">
         <v>1.0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>2.0</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>45</v>
+      <c r="F19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
@@ -1251,26 +1404,26 @@
       <c r="B20" s="2">
         <v>1.0</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>2.0</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>67</v>
+      <c r="D20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
@@ -1280,26 +1433,26 @@
       <c r="B21" s="2">
         <v>1.0</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>2.0</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>57</v>
+      <c r="D21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
@@ -1309,26 +1462,26 @@
       <c r="B22" s="2">
         <v>1.0</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>2.0</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>56</v>
+      <c r="D22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
@@ -1338,26 +1491,26 @@
       <c r="B23" s="2">
         <v>1.0</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>2.0</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>57</v>
+      <c r="D23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
@@ -1367,26 +1520,26 @@
       <c r="B24" s="2">
         <v>1.0</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>2.0</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>57</v>
+      <c r="H24" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
@@ -1396,26 +1549,26 @@
       <c r="B25" s="2">
         <v>1.0</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>2.0</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>78</v>
+      <c r="D25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
@@ -1425,26 +1578,26 @@
       <c r="B26" s="2">
         <v>1.0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>2.0</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>78</v>
+      <c r="D26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
@@ -1454,26 +1607,26 @@
       <c r="B27" s="2">
         <v>1.0</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>2.0</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>78</v>
+      <c r="D27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
@@ -1483,26 +1636,26 @@
       <c r="B28" s="2">
         <v>1.0</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>2.0</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>76</v>
+      <c r="D28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
@@ -1512,26 +1665,26 @@
       <c r="B29" s="2">
         <v>1.0</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>2.0</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>50</v>
+      <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1">
@@ -1541,26 +1694,26 @@
       <c r="B30" s="2">
         <v>1.0</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>3.0</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>87</v>
+      <c r="D30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1">
@@ -1570,26 +1723,26 @@
       <c r="B31" s="2">
         <v>1.0</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>3.0</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>91</v>
+      <c r="D31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
@@ -1599,26 +1752,26 @@
       <c r="B32" s="2">
         <v>1.0</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>3.0</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>14</v>
+      <c r="D32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
@@ -1628,26 +1781,26 @@
       <c r="B33" s="2">
         <v>1.0</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>3.0</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>90</v>
+      <c r="D33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
@@ -1657,26 +1810,26 @@
       <c r="B34" s="2">
         <v>1.0</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>3.0</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>14</v>
+      <c r="D34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
@@ -1686,26 +1839,26 @@
       <c r="B35" s="2">
         <v>1.0</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3">
         <v>3.0</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>90</v>
+      <c r="D35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
@@ -1715,26 +1868,26 @@
       <c r="B36" s="2">
         <v>1.0</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="3">
         <v>3.0</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>101</v>
+      <c r="D36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
@@ -1744,26 +1897,26 @@
       <c r="B37" s="2">
         <v>1.0</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <v>3.0</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>108</v>
+      <c r="D37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
@@ -1773,26 +1926,26 @@
       <c r="B38" s="2">
         <v>1.0</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3">
         <v>3.0</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>14</v>
+      <c r="D38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
@@ -1802,26 +1955,26 @@
       <c r="B39" s="2">
         <v>1.0</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3">
         <v>3.0</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>91</v>
+      <c r="D39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
@@ -1831,26 +1984,26 @@
       <c r="B40" s="2">
         <v>1.0</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="3">
         <v>3.0</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>102</v>
+      <c r="D40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
@@ -1860,26 +2013,26 @@
       <c r="B41" s="2">
         <v>1.0</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3">
         <v>3.0</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>101</v>
+      <c r="D41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
@@ -1889,26 +2042,26 @@
       <c r="B42" s="2">
         <v>1.0</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="3">
         <v>3.0</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>113</v>
+      <c r="D42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
@@ -1918,26 +2071,26 @@
       <c r="B43" s="2">
         <v>1.0</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>3.0</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>90</v>
+      <c r="D43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
@@ -2026,8 +2179,8 @@
       <c r="B2" s="2">
         <v>1.0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>119</v>
+      <c r="C2" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
@@ -2037,8 +2190,8 @@
       <c r="B3" s="2">
         <v>901.0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>120</v>
+      <c r="C3" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2073,7 +2226,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>160</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
@@ -2083,8 +2239,11 @@
       <c r="B2" s="2">
         <v>1.0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>121</v>
+      <c r="C2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
@@ -2094,8 +2253,11 @@
       <c r="B3" s="2">
         <v>1.0</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>122</v>
+      <c r="C3" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -2105,8 +2267,11 @@
       <c r="B4" s="2">
         <v>1.0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>123</v>
+      <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -2116,14 +2281,23 @@
       <c r="B5" s="2">
         <v>901.0</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>124</v>
+      <c r="C5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="D5"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/database/seeds.xlsx
+++ b/database/seeds.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -39,7 +39,7 @@
     <t>dummy_answer3</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>url</t>
   </si>
   <si>
     <t>猫はどれですか</t>
@@ -502,9 +502,6 @@
   </si>
   <si>
     <t>ダミージャンル</t>
-  </si>
-  <si>
-    <t>url</t>
   </si>
   <si>
     <t>古代中世ヨーロッパ</t>
@@ -547,6 +544,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -558,7 +556,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -595,10 +592,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -871,12 +868,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1.0</v>
       </c>
       <c r="B2" s="2">
@@ -900,12 +897,12 @@
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2.0</v>
       </c>
       <c r="B3" s="2">
@@ -929,12 +926,12 @@
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3.0</v>
       </c>
       <c r="B4" s="2">
@@ -958,12 +955,12 @@
       <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4.0</v>
       </c>
       <c r="B5" s="2">
@@ -987,12 +984,12 @@
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5.0</v>
       </c>
       <c r="B6" s="2">
@@ -1016,12 +1013,12 @@
       <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6.0</v>
       </c>
       <c r="B7" s="2">
@@ -1045,12 +1042,12 @@
       <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7.0</v>
       </c>
       <c r="B8" s="2">
@@ -1074,12 +1071,12 @@
       <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
@@ -1103,12 +1100,12 @@
       <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9.0</v>
       </c>
       <c r="B10" s="2">
@@ -1132,12 +1129,12 @@
       <c r="H10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10.0</v>
       </c>
       <c r="B11" s="2">
@@ -1161,12 +1158,12 @@
       <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11.0</v>
       </c>
       <c r="B12" s="2">
@@ -1190,12 +1187,12 @@
       <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12.0</v>
       </c>
       <c r="B13" s="2">
@@ -1219,12 +1216,12 @@
       <c r="H13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13.0</v>
       </c>
       <c r="B14" s="2">
@@ -1248,12 +1245,12 @@
       <c r="H14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14.0</v>
       </c>
       <c r="B15" s="2">
@@ -1277,12 +1274,12 @@
       <c r="H15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15.0</v>
       </c>
       <c r="B16" s="2">
@@ -1306,12 +1303,12 @@
       <c r="H16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16.0</v>
       </c>
       <c r="B17" s="2">
@@ -1335,12 +1332,12 @@
       <c r="H17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17.0</v>
       </c>
       <c r="B18" s="2">
@@ -1364,12 +1361,12 @@
       <c r="H18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18.0</v>
       </c>
       <c r="B19" s="2">
@@ -1393,12 +1390,12 @@
       <c r="H19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19.0</v>
       </c>
       <c r="B20" s="2">
@@ -1422,12 +1419,12 @@
       <c r="H20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20.0</v>
       </c>
       <c r="B21" s="2">
@@ -1451,12 +1448,12 @@
       <c r="H21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21.0</v>
       </c>
       <c r="B22" s="2">
@@ -1480,12 +1477,12 @@
       <c r="H22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22.0</v>
       </c>
       <c r="B23" s="2">
@@ -1509,12 +1506,12 @@
       <c r="H23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23.0</v>
       </c>
       <c r="B24" s="2">
@@ -1538,12 +1535,12 @@
       <c r="H24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24.0</v>
       </c>
       <c r="B25" s="2">
@@ -1567,12 +1564,12 @@
       <c r="H25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25.0</v>
       </c>
       <c r="B26" s="2">
@@ -1596,12 +1593,12 @@
       <c r="H26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26.0</v>
       </c>
       <c r="B27" s="2">
@@ -1625,12 +1622,12 @@
       <c r="H27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27.0</v>
       </c>
       <c r="B28" s="2">
@@ -1654,12 +1651,12 @@
       <c r="H28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28.0</v>
       </c>
       <c r="B29" s="2">
@@ -1683,12 +1680,12 @@
       <c r="H29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29.0</v>
       </c>
       <c r="B30" s="2">
@@ -1712,12 +1709,12 @@
       <c r="H30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>30.0</v>
       </c>
       <c r="B31" s="2">
@@ -1741,12 +1738,12 @@
       <c r="H31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31.0</v>
       </c>
       <c r="B32" s="2">
@@ -1770,12 +1767,12 @@
       <c r="H32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32.0</v>
       </c>
       <c r="B33" s="2">
@@ -1799,12 +1796,12 @@
       <c r="H33" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33.0</v>
       </c>
       <c r="B34" s="2">
@@ -1828,12 +1825,12 @@
       <c r="H34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>34.0</v>
       </c>
       <c r="B35" s="2">
@@ -1857,12 +1854,12 @@
       <c r="H35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35.0</v>
       </c>
       <c r="B36" s="2">
@@ -1886,12 +1883,12 @@
       <c r="H36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36.0</v>
       </c>
       <c r="B37" s="2">
@@ -1900,7 +1897,7 @@
       <c r="C37" s="3">
         <v>3.0</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1915,12 +1912,12 @@
       <c r="H37" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37.0</v>
       </c>
       <c r="B38" s="2">
@@ -1929,7 +1926,7 @@
       <c r="C38" s="3">
         <v>3.0</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1944,12 +1941,12 @@
       <c r="H38" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38.0</v>
       </c>
       <c r="B39" s="2">
@@ -1973,12 +1970,12 @@
       <c r="H39" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39.0</v>
       </c>
       <c r="B40" s="2">
@@ -2002,12 +1999,12 @@
       <c r="H40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40.0</v>
       </c>
       <c r="B41" s="2">
@@ -2031,12 +2028,12 @@
       <c r="H41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41.0</v>
       </c>
       <c r="B42" s="2">
@@ -2060,12 +2057,12 @@
       <c r="H42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42.0</v>
       </c>
       <c r="B43" s="2">
@@ -2089,7 +2086,7 @@
       <c r="H43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2173,7 +2170,7 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1.0</v>
       </c>
       <c r="B2" s="2">
@@ -2229,49 +2226,49 @@
         <v>160</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -2282,10 +2279,10 @@
         <v>901.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="5" t="s">
         <v>169</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds.xlsx
+++ b/database/seeds.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -303,7 +303,7 @@
     <t>ブワイフ朝</t>
   </si>
   <si>
-    <t>更にトルコ人がバグダットを奪い返し、エルサレムも占拠した、セルジューク朝の人物はだれですか</t>
+    <t>バグダットを奪い返し、エルサレムも占拠した、セルジューク朝トルコの人物はだれですか</t>
   </si>
   <si>
     <t>トゥグリルベク</t>
@@ -450,7 +450,7 @@
     <t>https://youtu.be/vprfrSTXgjY?t=465</t>
   </si>
   <si>
-    <t>マウリヤ朝に対して、海が近いことでヨーロッパと取引して栄えた、南の王朝の名前はなんですか</t>
+    <t>マウリヤ朝の次に栄えた南北の王朝のうち、海が近いことでヨーロッパと取引して栄えた、南の王朝の名前はなんですか</t>
   </si>
   <si>
     <t>https://youtu.be/vprfrSTXgjY?t=551</t>
@@ -1549,7 +1549,7 @@
       <c r="C25" s="3">
         <v>2.0</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -2153,9 +2153,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="9.63"/>
-    <col customWidth="1" min="3" max="3" width="13.88"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="13.88"/>
+    <col customWidth="1" min="3" max="25" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -2163,9 +2162,6 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2173,10 +2169,7 @@
       <c r="A2" s="5">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2184,10 +2177,7 @@
       <c r="A3" s="3">
         <v>901.0</v>
       </c>
-      <c r="B3" s="2">
-        <v>901.0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>162</v>
       </c>
     </row>
